--- a/DemoPack.xlsx
+++ b/DemoPack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -173,18 +173,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Test Case</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -268,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0">
-  <x:autoFilter ref="A1:K16"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0">
+  <x:autoFilter ref="A1:K15"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -575,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K16"/>
+  <x:dimension ref="A1:K15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -937,31 +925,6 @@
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
     </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-      <x:c r="K16" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
